--- a/20 開発資料/05.改修管理/170_改修管理_精算管理.xlsx
+++ b/20 開発資料/05.改修管理/170_改修管理_精算管理.xlsx
@@ -1282,92 +1282,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>一覧表示項目から会場手配番号を削除する。
-一覧表示項目に下記項目を追加する。
-　・製品名
-　・承認番号
-　・精算金額
-　・精算コメント
-　・承認日
-一覧の項目タイトル「NOZOMI送信」を「NZ送信」とする。</t>
-    <rPh sb="0" eb="2">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>カイジョウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>テハイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="41" eb="44">
-      <t>セイヒンメイ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ショウニン</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>セイサン</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>キンガク</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>セイサン</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>ショウニン</t>
-    </rPh>
-    <rPh sb="72" eb="73">
-      <t>ビ</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="90" eb="92">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="97" eb="99">
-      <t>ソウシン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>抽出結果をCSV出力可能とする。
 (「2画面目からのCSV項目1128」シート参照)</t>
     <rPh sb="0" eb="2">
@@ -1621,6 +1535,65 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>SapCsvTop.aspx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CSV出力項目の最後に「精算用団体コード」を追加する。</t>
+    <rPh sb="3" eb="5">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ダンタイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>WPAデータ作成(TOPTOUR用)</t>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>総合精算書</t>
+    <rPh sb="0" eb="2">
+      <t>ソウゴウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>工数</t>
+    <rPh sb="0" eb="2">
+      <t>コウスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>帳票レイアウト変更
 (「精算（帳票） 1128」シート参照)
 下記項目出力を追加する。
@@ -1628,6 +1601,7 @@
 ・会場名
 ・開催日
 ・精算用団体コード
+・TOP担当者
 精算完了→精算コメントとする。</t>
     <rPh sb="0" eb="2">
       <t>チョウヒョウ</t>
@@ -1674,73 +1648,107 @@
     <rPh sb="63" eb="65">
       <t>ダンタイ</t>
     </rPh>
+    <rPh sb="73" eb="76">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>セイサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一覧表示項目から会場手配番号を削除する。
+一覧表示項目に下記項目を追加する。
+　・製品名
+　・承認番号
+　・精算金額
+　・精算コメント
+　・承認日
+　・TOP担当者
+一覧の項目タイトル「NOZOMI送信」を「NZ送信」とする。</t>
+    <rPh sb="0" eb="2">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カイジョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テハイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>セイヒンメイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>セイサン</t>
+    </rPh>
     <rPh sb="70" eb="72">
-      <t>セイサン</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>セイサン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SapCsvTop.aspx</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CSV出力項目の最後に「精算用団体コード」を追加する。</t>
-    <rPh sb="3" eb="5">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="79" eb="82">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="86" eb="88">
       <t>コウモク</t>
     </rPh>
-    <rPh sb="8" eb="10">
-      <t>サイゴ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>セイサン</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ダンタイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>WPAデータ作成(TOPTOUR用)</t>
-    <rPh sb="6" eb="8">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>総合精算書</t>
-    <rPh sb="0" eb="2">
-      <t>ソウゴウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セイサン</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ショ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>工数</t>
-    <rPh sb="0" eb="2">
-      <t>コウスウ</t>
+    <rPh sb="99" eb="101">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>ソウシン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2396,6 +2404,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2405,23 +2441,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="56" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2498,37 +2537,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="J401K" xfId="1"/>
@@ -7373,7 +7381,7 @@
       <pane xSplit="48" ySplit="6" topLeftCell="AW7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AW1" sqref="AW1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="BB6" sqref="BB6"/>
+      <selection pane="bottomRight" activeCell="X10" sqref="X10:AJ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
@@ -7385,246 +7393,246 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60" t="s">
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="63" t="s">
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="64"/>
-      <c r="AC1" s="64"/>
-      <c r="AD1" s="64"/>
-      <c r="AE1" s="64"/>
-      <c r="AF1" s="64"/>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="60" t="s">
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
+      <c r="W1" s="75"/>
+      <c r="X1" s="75"/>
+      <c r="Y1" s="75"/>
+      <c r="Z1" s="75"/>
+      <c r="AA1" s="75"/>
+      <c r="AB1" s="75"/>
+      <c r="AC1" s="75"/>
+      <c r="AD1" s="75"/>
+      <c r="AE1" s="75"/>
+      <c r="AF1" s="75"/>
+      <c r="AG1" s="76"/>
+      <c r="AH1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="AI1" s="60"/>
-      <c r="AJ1" s="60"/>
-      <c r="AK1" s="60"/>
-      <c r="AL1" s="60"/>
-      <c r="AM1" s="60" t="s">
+      <c r="AI1" s="71"/>
+      <c r="AJ1" s="71"/>
+      <c r="AK1" s="71"/>
+      <c r="AL1" s="71"/>
+      <c r="AM1" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="AN1" s="60"/>
-      <c r="AO1" s="60"/>
-      <c r="AP1" s="60"/>
-      <c r="AQ1" s="60"/>
-      <c r="AR1" s="60" t="s">
+      <c r="AN1" s="71"/>
+      <c r="AO1" s="71"/>
+      <c r="AP1" s="71"/>
+      <c r="AQ1" s="71"/>
+      <c r="AR1" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="AS1" s="60"/>
-      <c r="AT1" s="60"/>
-      <c r="AU1" s="60"/>
-      <c r="AV1" s="60"/>
-      <c r="AW1" s="60" t="s">
+      <c r="AS1" s="71"/>
+      <c r="AT1" s="71"/>
+      <c r="AU1" s="71"/>
+      <c r="AV1" s="71"/>
+      <c r="AW1" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="AX1" s="60"/>
-      <c r="AY1" s="60"/>
-      <c r="AZ1" s="60"/>
-      <c r="BA1" s="60"/>
+      <c r="AX1" s="71"/>
+      <c r="AY1" s="71"/>
+      <c r="AZ1" s="71"/>
+      <c r="BA1" s="71"/>
     </row>
     <row r="2" spans="1:59" ht="11.25" customHeight="1">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="67"/>
-      <c r="AC2" s="67"/>
-      <c r="AD2" s="67"/>
-      <c r="AE2" s="67"/>
-      <c r="AF2" s="67"/>
-      <c r="AG2" s="68"/>
-      <c r="AH2" s="62">
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="78"/>
+      <c r="V2" s="78"/>
+      <c r="W2" s="78"/>
+      <c r="X2" s="78"/>
+      <c r="Y2" s="78"/>
+      <c r="Z2" s="78"/>
+      <c r="AA2" s="78"/>
+      <c r="AB2" s="78"/>
+      <c r="AC2" s="78"/>
+      <c r="AD2" s="78"/>
+      <c r="AE2" s="78"/>
+      <c r="AF2" s="78"/>
+      <c r="AG2" s="79"/>
+      <c r="AH2" s="73">
         <v>42719</v>
       </c>
-      <c r="AI2" s="62"/>
-      <c r="AJ2" s="62"/>
-      <c r="AK2" s="62"/>
-      <c r="AL2" s="62"/>
-      <c r="AM2" s="60" t="s">
+      <c r="AI2" s="73"/>
+      <c r="AJ2" s="73"/>
+      <c r="AK2" s="73"/>
+      <c r="AL2" s="73"/>
+      <c r="AM2" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="AN2" s="60"/>
-      <c r="AO2" s="60"/>
-      <c r="AP2" s="60"/>
-      <c r="AQ2" s="60"/>
-      <c r="AR2" s="62"/>
-      <c r="AS2" s="62"/>
-      <c r="AT2" s="62"/>
-      <c r="AU2" s="62"/>
-      <c r="AV2" s="62"/>
-      <c r="AW2" s="60"/>
-      <c r="AX2" s="60"/>
-      <c r="AY2" s="60"/>
-      <c r="AZ2" s="60"/>
-      <c r="BA2" s="60"/>
+      <c r="AN2" s="71"/>
+      <c r="AO2" s="71"/>
+      <c r="AP2" s="71"/>
+      <c r="AQ2" s="71"/>
+      <c r="AR2" s="73"/>
+      <c r="AS2" s="73"/>
+      <c r="AT2" s="73"/>
+      <c r="AU2" s="73"/>
+      <c r="AV2" s="73"/>
+      <c r="AW2" s="71"/>
+      <c r="AX2" s="71"/>
+      <c r="AY2" s="71"/>
+      <c r="AZ2" s="71"/>
+      <c r="BA2" s="71"/>
     </row>
     <row r="3" spans="1:59" ht="11.25" customHeight="1">
-      <c r="A3" s="61"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
-      <c r="U3" s="67"/>
-      <c r="V3" s="67"/>
-      <c r="W3" s="67"/>
-      <c r="X3" s="67"/>
-      <c r="Y3" s="67"/>
-      <c r="Z3" s="67"/>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="67"/>
-      <c r="AC3" s="67"/>
-      <c r="AD3" s="67"/>
-      <c r="AE3" s="67"/>
-      <c r="AF3" s="67"/>
-      <c r="AG3" s="68"/>
-      <c r="AH3" s="62"/>
-      <c r="AI3" s="62"/>
-      <c r="AJ3" s="62"/>
-      <c r="AK3" s="62"/>
-      <c r="AL3" s="62"/>
-      <c r="AM3" s="60"/>
-      <c r="AN3" s="60"/>
-      <c r="AO3" s="60"/>
-      <c r="AP3" s="60"/>
-      <c r="AQ3" s="60"/>
-      <c r="AR3" s="62"/>
-      <c r="AS3" s="62"/>
-      <c r="AT3" s="62"/>
-      <c r="AU3" s="62"/>
-      <c r="AV3" s="62"/>
-      <c r="AW3" s="60"/>
-      <c r="AX3" s="60"/>
-      <c r="AY3" s="60"/>
-      <c r="AZ3" s="60"/>
-      <c r="BA3" s="60"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="78"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="78"/>
+      <c r="W3" s="78"/>
+      <c r="X3" s="78"/>
+      <c r="Y3" s="78"/>
+      <c r="Z3" s="78"/>
+      <c r="AA3" s="78"/>
+      <c r="AB3" s="78"/>
+      <c r="AC3" s="78"/>
+      <c r="AD3" s="78"/>
+      <c r="AE3" s="78"/>
+      <c r="AF3" s="78"/>
+      <c r="AG3" s="79"/>
+      <c r="AH3" s="73"/>
+      <c r="AI3" s="73"/>
+      <c r="AJ3" s="73"/>
+      <c r="AK3" s="73"/>
+      <c r="AL3" s="73"/>
+      <c r="AM3" s="71"/>
+      <c r="AN3" s="71"/>
+      <c r="AO3" s="71"/>
+      <c r="AP3" s="71"/>
+      <c r="AQ3" s="71"/>
+      <c r="AR3" s="73"/>
+      <c r="AS3" s="73"/>
+      <c r="AT3" s="73"/>
+      <c r="AU3" s="73"/>
+      <c r="AV3" s="73"/>
+      <c r="AW3" s="71"/>
+      <c r="AX3" s="71"/>
+      <c r="AY3" s="71"/>
+      <c r="AZ3" s="71"/>
+      <c r="BA3" s="71"/>
     </row>
     <row r="4" spans="1:59">
-      <c r="A4" s="61"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="70"/>
-      <c r="R4" s="70"/>
-      <c r="S4" s="70"/>
-      <c r="T4" s="70"/>
-      <c r="U4" s="70"/>
-      <c r="V4" s="70"/>
-      <c r="W4" s="70"/>
-      <c r="X4" s="70"/>
-      <c r="Y4" s="70"/>
-      <c r="Z4" s="70"/>
-      <c r="AA4" s="70"/>
-      <c r="AB4" s="70"/>
-      <c r="AC4" s="70"/>
-      <c r="AD4" s="70"/>
-      <c r="AE4" s="70"/>
-      <c r="AF4" s="70"/>
-      <c r="AG4" s="71"/>
-      <c r="AH4" s="62"/>
-      <c r="AI4" s="62"/>
-      <c r="AJ4" s="62"/>
-      <c r="AK4" s="62"/>
-      <c r="AL4" s="62"/>
-      <c r="AM4" s="60"/>
-      <c r="AN4" s="60"/>
-      <c r="AO4" s="60"/>
-      <c r="AP4" s="60"/>
-      <c r="AQ4" s="60"/>
-      <c r="AR4" s="62"/>
-      <c r="AS4" s="62"/>
-      <c r="AT4" s="62"/>
-      <c r="AU4" s="62"/>
-      <c r="AV4" s="62"/>
-      <c r="AW4" s="60"/>
-      <c r="AX4" s="60"/>
-      <c r="AY4" s="60"/>
-      <c r="AZ4" s="60"/>
-      <c r="BA4" s="60"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="81"/>
+      <c r="R4" s="81"/>
+      <c r="S4" s="81"/>
+      <c r="T4" s="81"/>
+      <c r="U4" s="81"/>
+      <c r="V4" s="81"/>
+      <c r="W4" s="81"/>
+      <c r="X4" s="81"/>
+      <c r="Y4" s="81"/>
+      <c r="Z4" s="81"/>
+      <c r="AA4" s="81"/>
+      <c r="AB4" s="81"/>
+      <c r="AC4" s="81"/>
+      <c r="AD4" s="81"/>
+      <c r="AE4" s="81"/>
+      <c r="AF4" s="81"/>
+      <c r="AG4" s="82"/>
+      <c r="AH4" s="73"/>
+      <c r="AI4" s="73"/>
+      <c r="AJ4" s="73"/>
+      <c r="AK4" s="73"/>
+      <c r="AL4" s="73"/>
+      <c r="AM4" s="71"/>
+      <c r="AN4" s="71"/>
+      <c r="AO4" s="71"/>
+      <c r="AP4" s="71"/>
+      <c r="AQ4" s="71"/>
+      <c r="AR4" s="73"/>
+      <c r="AS4" s="73"/>
+      <c r="AT4" s="73"/>
+      <c r="AU4" s="73"/>
+      <c r="AV4" s="73"/>
+      <c r="AW4" s="71"/>
+      <c r="AX4" s="71"/>
+      <c r="AY4" s="71"/>
+      <c r="AZ4" s="71"/>
+      <c r="BA4" s="71"/>
     </row>
     <row r="5" spans="1:59">
       <c r="A5" s="2"/>
@@ -7651,70 +7659,70 @@
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59" t="s">
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="59"/>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="59" t="s">
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="68"/>
+      <c r="S6" s="68"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="68"/>
+      <c r="V6" s="68"/>
+      <c r="W6" s="68"/>
+      <c r="X6" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="Y6" s="59"/>
-      <c r="Z6" s="59"/>
-      <c r="AA6" s="59"/>
-      <c r="AB6" s="59"/>
-      <c r="AC6" s="59"/>
-      <c r="AD6" s="59"/>
-      <c r="AE6" s="59"/>
-      <c r="AF6" s="59"/>
-      <c r="AG6" s="59"/>
-      <c r="AH6" s="59"/>
-      <c r="AI6" s="59"/>
-      <c r="AJ6" s="59"/>
-      <c r="AK6" s="59" t="s">
+      <c r="Y6" s="68"/>
+      <c r="Z6" s="68"/>
+      <c r="AA6" s="68"/>
+      <c r="AB6" s="68"/>
+      <c r="AC6" s="68"/>
+      <c r="AD6" s="68"/>
+      <c r="AE6" s="68"/>
+      <c r="AF6" s="68"/>
+      <c r="AG6" s="68"/>
+      <c r="AH6" s="68"/>
+      <c r="AI6" s="68"/>
+      <c r="AJ6" s="68"/>
+      <c r="AK6" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="AL6" s="59"/>
-      <c r="AM6" s="59"/>
-      <c r="AN6" s="59"/>
-      <c r="AO6" s="59"/>
-      <c r="AP6" s="59"/>
-      <c r="AQ6" s="59"/>
-      <c r="AR6" s="59"/>
-      <c r="AS6" s="59"/>
-      <c r="AT6" s="59"/>
-      <c r="AU6" s="59"/>
-      <c r="AV6" s="59"/>
-      <c r="AW6" s="59" t="s">
+      <c r="AL6" s="68"/>
+      <c r="AM6" s="68"/>
+      <c r="AN6" s="68"/>
+      <c r="AO6" s="68"/>
+      <c r="AP6" s="68"/>
+      <c r="AQ6" s="68"/>
+      <c r="AR6" s="68"/>
+      <c r="AS6" s="68"/>
+      <c r="AT6" s="68"/>
+      <c r="AU6" s="68"/>
+      <c r="AV6" s="68"/>
+      <c r="AW6" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="AX6" s="59"/>
-      <c r="AY6" s="59"/>
-      <c r="AZ6" s="59"/>
-      <c r="BA6" s="59"/>
-      <c r="BB6" s="95" t="s">
-        <v>139</v>
+      <c r="AX6" s="68"/>
+      <c r="AY6" s="68"/>
+      <c r="AZ6" s="68"/>
+      <c r="BA6" s="68"/>
+      <c r="BB6" s="55" t="s">
+        <v>137</v>
       </c>
       <c r="BC6" s="2"/>
       <c r="BD6" s="2"/>
@@ -7727,443 +7735,443 @@
         <f>ROW()-6</f>
         <v>1</v>
       </c>
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="73" t="s">
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="84" t="s">
+        <v>128</v>
+      </c>
+      <c r="L7" s="84"/>
+      <c r="M7" s="84"/>
+      <c r="N7" s="84"/>
+      <c r="O7" s="84"/>
+      <c r="P7" s="84"/>
+      <c r="Q7" s="84"/>
+      <c r="R7" s="84"/>
+      <c r="S7" s="84"/>
+      <c r="T7" s="84"/>
+      <c r="U7" s="84"/>
+      <c r="V7" s="84"/>
+      <c r="W7" s="84"/>
+      <c r="X7" s="83" t="s">
         <v>129</v>
       </c>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="73"/>
-      <c r="O7" s="73"/>
-      <c r="P7" s="73"/>
-      <c r="Q7" s="73"/>
-      <c r="R7" s="73"/>
-      <c r="S7" s="73"/>
-      <c r="T7" s="73"/>
-      <c r="U7" s="73"/>
-      <c r="V7" s="73"/>
-      <c r="W7" s="73"/>
-      <c r="X7" s="72" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y7" s="72"/>
-      <c r="Z7" s="72"/>
-      <c r="AA7" s="72"/>
-      <c r="AB7" s="72"/>
-      <c r="AC7" s="72"/>
-      <c r="AD7" s="72"/>
-      <c r="AE7" s="72"/>
-      <c r="AF7" s="72"/>
-      <c r="AG7" s="72"/>
-      <c r="AH7" s="72"/>
-      <c r="AI7" s="72"/>
-      <c r="AJ7" s="72"/>
-      <c r="AK7" s="73"/>
-      <c r="AL7" s="73"/>
-      <c r="AM7" s="73"/>
-      <c r="AN7" s="73"/>
-      <c r="AO7" s="73"/>
-      <c r="AP7" s="73"/>
-      <c r="AQ7" s="73"/>
-      <c r="AR7" s="73"/>
-      <c r="AS7" s="73"/>
-      <c r="AT7" s="73"/>
-      <c r="AU7" s="73"/>
-      <c r="AV7" s="73"/>
-      <c r="AW7" s="73"/>
-      <c r="AX7" s="73"/>
-      <c r="AY7" s="73"/>
-      <c r="AZ7" s="73"/>
-      <c r="BA7" s="73"/>
-      <c r="BB7" s="94"/>
+      <c r="Y7" s="83"/>
+      <c r="Z7" s="83"/>
+      <c r="AA7" s="83"/>
+      <c r="AB7" s="83"/>
+      <c r="AC7" s="83"/>
+      <c r="AD7" s="83"/>
+      <c r="AE7" s="83"/>
+      <c r="AF7" s="83"/>
+      <c r="AG7" s="83"/>
+      <c r="AH7" s="83"/>
+      <c r="AI7" s="83"/>
+      <c r="AJ7" s="83"/>
+      <c r="AK7" s="84"/>
+      <c r="AL7" s="84"/>
+      <c r="AM7" s="84"/>
+      <c r="AN7" s="84"/>
+      <c r="AO7" s="84"/>
+      <c r="AP7" s="84"/>
+      <c r="AQ7" s="84"/>
+      <c r="AR7" s="84"/>
+      <c r="AS7" s="84"/>
+      <c r="AT7" s="84"/>
+      <c r="AU7" s="84"/>
+      <c r="AV7" s="84"/>
+      <c r="AW7" s="84"/>
+      <c r="AX7" s="84"/>
+      <c r="AY7" s="84"/>
+      <c r="AZ7" s="84"/>
+      <c r="BA7" s="84"/>
+      <c r="BB7" s="54"/>
     </row>
     <row r="8" spans="1:59" s="3" customFormat="1" ht="26.25" customHeight="1">
       <c r="A8" s="7">
         <f t="shared" ref="A8:A9" si="0">ROW()-6</f>
         <v>2</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="54" t="s">
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="54"/>
-      <c r="S8" s="54"/>
-      <c r="T8" s="54"/>
-      <c r="U8" s="54"/>
-      <c r="V8" s="54"/>
-      <c r="W8" s="54"/>
-      <c r="X8" s="55" t="s">
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="56"/>
+      <c r="V8" s="56"/>
+      <c r="W8" s="56"/>
+      <c r="X8" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="Y8" s="55"/>
-      <c r="Z8" s="55"/>
-      <c r="AA8" s="55"/>
-      <c r="AB8" s="55"/>
-      <c r="AC8" s="55"/>
-      <c r="AD8" s="55"/>
-      <c r="AE8" s="55"/>
-      <c r="AF8" s="55"/>
-      <c r="AG8" s="55"/>
-      <c r="AH8" s="55"/>
-      <c r="AI8" s="55"/>
-      <c r="AJ8" s="55"/>
-      <c r="AK8" s="54"/>
-      <c r="AL8" s="54"/>
-      <c r="AM8" s="54"/>
-      <c r="AN8" s="54"/>
-      <c r="AO8" s="54"/>
-      <c r="AP8" s="54"/>
-      <c r="AQ8" s="54"/>
-      <c r="AR8" s="54"/>
-      <c r="AS8" s="54"/>
-      <c r="AT8" s="54"/>
-      <c r="AU8" s="54"/>
-      <c r="AV8" s="54"/>
-      <c r="AW8" s="54"/>
-      <c r="AX8" s="54"/>
-      <c r="AY8" s="54"/>
-      <c r="AZ8" s="54"/>
-      <c r="BA8" s="54"/>
+      <c r="Y8" s="57"/>
+      <c r="Z8" s="57"/>
+      <c r="AA8" s="57"/>
+      <c r="AB8" s="57"/>
+      <c r="AC8" s="57"/>
+      <c r="AD8" s="57"/>
+      <c r="AE8" s="57"/>
+      <c r="AF8" s="57"/>
+      <c r="AG8" s="57"/>
+      <c r="AH8" s="57"/>
+      <c r="AI8" s="57"/>
+      <c r="AJ8" s="57"/>
+      <c r="AK8" s="56"/>
+      <c r="AL8" s="56"/>
+      <c r="AM8" s="56"/>
+      <c r="AN8" s="56"/>
+      <c r="AO8" s="56"/>
+      <c r="AP8" s="56"/>
+      <c r="AQ8" s="56"/>
+      <c r="AR8" s="56"/>
+      <c r="AS8" s="56"/>
+      <c r="AT8" s="56"/>
+      <c r="AU8" s="56"/>
+      <c r="AV8" s="56"/>
+      <c r="AW8" s="56"/>
+      <c r="AX8" s="56"/>
+      <c r="AY8" s="56"/>
+      <c r="AZ8" s="56"/>
+      <c r="BA8" s="56"/>
       <c r="BB8" s="10">
         <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:59" s="3" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A9" s="85">
+      <c r="A9" s="51">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="69" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="87" t="s">
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="L9" s="87"/>
-      <c r="M9" s="87"/>
-      <c r="N9" s="87"/>
-      <c r="O9" s="87"/>
-      <c r="P9" s="87"/>
-      <c r="Q9" s="87"/>
-      <c r="R9" s="87"/>
-      <c r="S9" s="87"/>
-      <c r="T9" s="87"/>
-      <c r="U9" s="87"/>
-      <c r="V9" s="87"/>
-      <c r="W9" s="87"/>
-      <c r="X9" s="55" t="s">
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="70"/>
+      <c r="S9" s="70"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="70"/>
+      <c r="V9" s="70"/>
+      <c r="W9" s="70"/>
+      <c r="X9" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="Y9" s="55"/>
-      <c r="Z9" s="55"/>
-      <c r="AA9" s="55"/>
-      <c r="AB9" s="55"/>
-      <c r="AC9" s="55"/>
-      <c r="AD9" s="55"/>
-      <c r="AE9" s="55"/>
-      <c r="AF9" s="55"/>
-      <c r="AG9" s="55"/>
-      <c r="AH9" s="55"/>
-      <c r="AI9" s="55"/>
-      <c r="AJ9" s="55"/>
-      <c r="AK9" s="54"/>
-      <c r="AL9" s="54"/>
-      <c r="AM9" s="54"/>
-      <c r="AN9" s="54"/>
-      <c r="AO9" s="54"/>
-      <c r="AP9" s="54"/>
-      <c r="AQ9" s="54"/>
-      <c r="AR9" s="54"/>
-      <c r="AS9" s="54"/>
-      <c r="AT9" s="54"/>
-      <c r="AU9" s="54"/>
-      <c r="AV9" s="54"/>
-      <c r="AW9" s="54"/>
-      <c r="AX9" s="54"/>
-      <c r="AY9" s="54"/>
-      <c r="AZ9" s="54"/>
-      <c r="BA9" s="54"/>
+      <c r="Y9" s="57"/>
+      <c r="Z9" s="57"/>
+      <c r="AA9" s="57"/>
+      <c r="AB9" s="57"/>
+      <c r="AC9" s="57"/>
+      <c r="AD9" s="57"/>
+      <c r="AE9" s="57"/>
+      <c r="AF9" s="57"/>
+      <c r="AG9" s="57"/>
+      <c r="AH9" s="57"/>
+      <c r="AI9" s="57"/>
+      <c r="AJ9" s="57"/>
+      <c r="AK9" s="56"/>
+      <c r="AL9" s="56"/>
+      <c r="AM9" s="56"/>
+      <c r="AN9" s="56"/>
+      <c r="AO9" s="56"/>
+      <c r="AP9" s="56"/>
+      <c r="AQ9" s="56"/>
+      <c r="AR9" s="56"/>
+      <c r="AS9" s="56"/>
+      <c r="AT9" s="56"/>
+      <c r="AU9" s="56"/>
+      <c r="AV9" s="56"/>
+      <c r="AW9" s="56"/>
+      <c r="AX9" s="56"/>
+      <c r="AY9" s="56"/>
+      <c r="AZ9" s="56"/>
+      <c r="BA9" s="56"/>
       <c r="BB9" s="10">
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:59" s="5" customFormat="1" ht="111" customHeight="1">
-      <c r="A10" s="88"/>
-      <c r="B10" s="89"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="90"/>
-      <c r="L10" s="90"/>
-      <c r="M10" s="90"/>
-      <c r="N10" s="90"/>
-      <c r="O10" s="90"/>
-      <c r="P10" s="90"/>
-      <c r="Q10" s="90"/>
-      <c r="R10" s="90"/>
-      <c r="S10" s="90"/>
-      <c r="T10" s="90"/>
-      <c r="U10" s="90"/>
-      <c r="V10" s="90"/>
-      <c r="W10" s="90"/>
-      <c r="X10" s="55" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y10" s="55"/>
-      <c r="Z10" s="55"/>
-      <c r="AA10" s="55"/>
-      <c r="AB10" s="55"/>
-      <c r="AC10" s="55"/>
-      <c r="AD10" s="55"/>
-      <c r="AE10" s="55"/>
-      <c r="AF10" s="55"/>
-      <c r="AG10" s="55"/>
-      <c r="AH10" s="55"/>
-      <c r="AI10" s="55"/>
-      <c r="AJ10" s="55"/>
-      <c r="AK10" s="54"/>
-      <c r="AL10" s="54"/>
-      <c r="AM10" s="54"/>
-      <c r="AN10" s="54"/>
-      <c r="AO10" s="54"/>
-      <c r="AP10" s="54"/>
-      <c r="AQ10" s="54"/>
-      <c r="AR10" s="54"/>
-      <c r="AS10" s="54"/>
-      <c r="AT10" s="54"/>
-      <c r="AU10" s="54"/>
-      <c r="AV10" s="54"/>
-      <c r="AW10" s="54"/>
-      <c r="AX10" s="54"/>
-      <c r="AY10" s="54"/>
-      <c r="AZ10" s="54"/>
-      <c r="BA10" s="54"/>
+    <row r="10" spans="1:59" s="5" customFormat="1" ht="119.25" customHeight="1">
+      <c r="A10" s="52"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="60"/>
+      <c r="R10" s="60"/>
+      <c r="S10" s="60"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="60"/>
+      <c r="V10" s="60"/>
+      <c r="W10" s="60"/>
+      <c r="X10" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y10" s="57"/>
+      <c r="Z10" s="57"/>
+      <c r="AA10" s="57"/>
+      <c r="AB10" s="57"/>
+      <c r="AC10" s="57"/>
+      <c r="AD10" s="57"/>
+      <c r="AE10" s="57"/>
+      <c r="AF10" s="57"/>
+      <c r="AG10" s="57"/>
+      <c r="AH10" s="57"/>
+      <c r="AI10" s="57"/>
+      <c r="AJ10" s="57"/>
+      <c r="AK10" s="56"/>
+      <c r="AL10" s="56"/>
+      <c r="AM10" s="56"/>
+      <c r="AN10" s="56"/>
+      <c r="AO10" s="56"/>
+      <c r="AP10" s="56"/>
+      <c r="AQ10" s="56"/>
+      <c r="AR10" s="56"/>
+      <c r="AS10" s="56"/>
+      <c r="AT10" s="56"/>
+      <c r="AU10" s="56"/>
+      <c r="AV10" s="56"/>
+      <c r="AW10" s="56"/>
+      <c r="AX10" s="56"/>
+      <c r="AY10" s="56"/>
+      <c r="AZ10" s="56"/>
+      <c r="BA10" s="56"/>
       <c r="BB10" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:59" s="3" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A11" s="91"/>
-      <c r="B11" s="92"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="93"/>
-      <c r="L11" s="93"/>
-      <c r="M11" s="93"/>
-      <c r="N11" s="93"/>
-      <c r="O11" s="93"/>
-      <c r="P11" s="93"/>
-      <c r="Q11" s="93"/>
-      <c r="R11" s="93"/>
-      <c r="S11" s="93"/>
-      <c r="T11" s="93"/>
-      <c r="U11" s="93"/>
-      <c r="V11" s="93"/>
-      <c r="W11" s="93"/>
-      <c r="X11" s="55" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y11" s="55"/>
-      <c r="Z11" s="55"/>
-      <c r="AA11" s="55"/>
-      <c r="AB11" s="55"/>
-      <c r="AC11" s="55"/>
-      <c r="AD11" s="55"/>
-      <c r="AE11" s="55"/>
-      <c r="AF11" s="55"/>
-      <c r="AG11" s="55"/>
-      <c r="AH11" s="55"/>
-      <c r="AI11" s="55"/>
-      <c r="AJ11" s="55"/>
-      <c r="AK11" s="54"/>
-      <c r="AL11" s="54"/>
-      <c r="AM11" s="54"/>
-      <c r="AN11" s="54"/>
-      <c r="AO11" s="54"/>
-      <c r="AP11" s="54"/>
-      <c r="AQ11" s="54"/>
-      <c r="AR11" s="54"/>
-      <c r="AS11" s="54"/>
-      <c r="AT11" s="54"/>
-      <c r="AU11" s="54"/>
-      <c r="AV11" s="54"/>
-      <c r="AW11" s="54"/>
-      <c r="AX11" s="54"/>
-      <c r="AY11" s="54"/>
-      <c r="AZ11" s="54"/>
-      <c r="BA11" s="54"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="65"/>
+      <c r="P11" s="65"/>
+      <c r="Q11" s="65"/>
+      <c r="R11" s="65"/>
+      <c r="S11" s="65"/>
+      <c r="T11" s="65"/>
+      <c r="U11" s="65"/>
+      <c r="V11" s="65"/>
+      <c r="W11" s="65"/>
+      <c r="X11" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y11" s="57"/>
+      <c r="Z11" s="57"/>
+      <c r="AA11" s="57"/>
+      <c r="AB11" s="57"/>
+      <c r="AC11" s="57"/>
+      <c r="AD11" s="57"/>
+      <c r="AE11" s="57"/>
+      <c r="AF11" s="57"/>
+      <c r="AG11" s="57"/>
+      <c r="AH11" s="57"/>
+      <c r="AI11" s="57"/>
+      <c r="AJ11" s="57"/>
+      <c r="AK11" s="56"/>
+      <c r="AL11" s="56"/>
+      <c r="AM11" s="56"/>
+      <c r="AN11" s="56"/>
+      <c r="AO11" s="56"/>
+      <c r="AP11" s="56"/>
+      <c r="AQ11" s="56"/>
+      <c r="AR11" s="56"/>
+      <c r="AS11" s="56"/>
+      <c r="AT11" s="56"/>
+      <c r="AU11" s="56"/>
+      <c r="AV11" s="56"/>
+      <c r="AW11" s="56"/>
+      <c r="AX11" s="56"/>
+      <c r="AY11" s="56"/>
+      <c r="AZ11" s="56"/>
+      <c r="BA11" s="56"/>
       <c r="BB11" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:59" s="5" customFormat="1" ht="157.5" customHeight="1">
-      <c r="A12" s="85">
+      <c r="A12" s="51">
         <f>ROW()-8</f>
         <v>4</v>
       </c>
-      <c r="B12" s="86" t="s">
+      <c r="B12" s="69" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="70" t="s">
         <v>127</v>
       </c>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="86"/>
-      <c r="K12" s="87" t="s">
-        <v>128</v>
-      </c>
-      <c r="L12" s="87"/>
-      <c r="M12" s="87"/>
-      <c r="N12" s="87"/>
-      <c r="O12" s="87"/>
-      <c r="P12" s="87"/>
-      <c r="Q12" s="87"/>
-      <c r="R12" s="87"/>
-      <c r="S12" s="87"/>
-      <c r="T12" s="87"/>
-      <c r="U12" s="87"/>
-      <c r="V12" s="87"/>
-      <c r="W12" s="87"/>
-      <c r="X12" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y12" s="55"/>
-      <c r="Z12" s="55"/>
-      <c r="AA12" s="55"/>
-      <c r="AB12" s="55"/>
-      <c r="AC12" s="55"/>
-      <c r="AD12" s="55"/>
-      <c r="AE12" s="55"/>
-      <c r="AF12" s="55"/>
-      <c r="AG12" s="55"/>
-      <c r="AH12" s="55"/>
-      <c r="AI12" s="55"/>
-      <c r="AJ12" s="55"/>
-      <c r="AK12" s="54"/>
-      <c r="AL12" s="54"/>
-      <c r="AM12" s="54"/>
-      <c r="AN12" s="54"/>
-      <c r="AO12" s="54"/>
-      <c r="AP12" s="54"/>
-      <c r="AQ12" s="54"/>
-      <c r="AR12" s="54"/>
-      <c r="AS12" s="54"/>
-      <c r="AT12" s="54"/>
-      <c r="AU12" s="54"/>
-      <c r="AV12" s="54"/>
-      <c r="AW12" s="54"/>
-      <c r="AX12" s="54"/>
-      <c r="AY12" s="54"/>
-      <c r="AZ12" s="54"/>
-      <c r="BA12" s="54"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="70"/>
+      <c r="Q12" s="70"/>
+      <c r="R12" s="70"/>
+      <c r="S12" s="70"/>
+      <c r="T12" s="70"/>
+      <c r="U12" s="70"/>
+      <c r="V12" s="70"/>
+      <c r="W12" s="70"/>
+      <c r="X12" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y12" s="57"/>
+      <c r="Z12" s="57"/>
+      <c r="AA12" s="57"/>
+      <c r="AB12" s="57"/>
+      <c r="AC12" s="57"/>
+      <c r="AD12" s="57"/>
+      <c r="AE12" s="57"/>
+      <c r="AF12" s="57"/>
+      <c r="AG12" s="57"/>
+      <c r="AH12" s="57"/>
+      <c r="AI12" s="57"/>
+      <c r="AJ12" s="57"/>
+      <c r="AK12" s="56"/>
+      <c r="AL12" s="56"/>
+      <c r="AM12" s="56"/>
+      <c r="AN12" s="56"/>
+      <c r="AO12" s="56"/>
+      <c r="AP12" s="56"/>
+      <c r="AQ12" s="56"/>
+      <c r="AR12" s="56"/>
+      <c r="AS12" s="56"/>
+      <c r="AT12" s="56"/>
+      <c r="AU12" s="56"/>
+      <c r="AV12" s="56"/>
+      <c r="AW12" s="56"/>
+      <c r="AX12" s="56"/>
+      <c r="AY12" s="56"/>
+      <c r="AZ12" s="56"/>
+      <c r="BA12" s="56"/>
       <c r="BB12" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:59" s="3" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A13" s="91"/>
-      <c r="B13" s="92"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="93"/>
-      <c r="N13" s="93"/>
-      <c r="O13" s="93"/>
-      <c r="P13" s="93"/>
-      <c r="Q13" s="93"/>
-      <c r="R13" s="93"/>
-      <c r="S13" s="93"/>
-      <c r="T13" s="93"/>
-      <c r="U13" s="93"/>
-      <c r="V13" s="93"/>
-      <c r="W13" s="93"/>
-      <c r="X13" s="55" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y13" s="55"/>
-      <c r="Z13" s="55"/>
-      <c r="AA13" s="55"/>
-      <c r="AB13" s="55"/>
-      <c r="AC13" s="55"/>
-      <c r="AD13" s="55"/>
-      <c r="AE13" s="55"/>
-      <c r="AF13" s="55"/>
-      <c r="AG13" s="55"/>
-      <c r="AH13" s="55"/>
-      <c r="AI13" s="55"/>
-      <c r="AJ13" s="55"/>
-      <c r="AK13" s="54"/>
-      <c r="AL13" s="54"/>
-      <c r="AM13" s="54"/>
-      <c r="AN13" s="54"/>
-      <c r="AO13" s="54"/>
-      <c r="AP13" s="54"/>
-      <c r="AQ13" s="54"/>
-      <c r="AR13" s="54"/>
-      <c r="AS13" s="54"/>
-      <c r="AT13" s="54"/>
-      <c r="AU13" s="54"/>
-      <c r="AV13" s="54"/>
-      <c r="AW13" s="54"/>
-      <c r="AX13" s="54"/>
-      <c r="AY13" s="54"/>
-      <c r="AZ13" s="54"/>
-      <c r="BA13" s="54"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="65"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="65"/>
+      <c r="O13" s="65"/>
+      <c r="P13" s="65"/>
+      <c r="Q13" s="65"/>
+      <c r="R13" s="65"/>
+      <c r="S13" s="65"/>
+      <c r="T13" s="65"/>
+      <c r="U13" s="65"/>
+      <c r="V13" s="65"/>
+      <c r="W13" s="65"/>
+      <c r="X13" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y13" s="57"/>
+      <c r="Z13" s="57"/>
+      <c r="AA13" s="57"/>
+      <c r="AB13" s="57"/>
+      <c r="AC13" s="57"/>
+      <c r="AD13" s="57"/>
+      <c r="AE13" s="57"/>
+      <c r="AF13" s="57"/>
+      <c r="AG13" s="57"/>
+      <c r="AH13" s="57"/>
+      <c r="AI13" s="57"/>
+      <c r="AJ13" s="57"/>
+      <c r="AK13" s="56"/>
+      <c r="AL13" s="56"/>
+      <c r="AM13" s="56"/>
+      <c r="AN13" s="56"/>
+      <c r="AO13" s="56"/>
+      <c r="AP13" s="56"/>
+      <c r="AQ13" s="56"/>
+      <c r="AR13" s="56"/>
+      <c r="AS13" s="56"/>
+      <c r="AT13" s="56"/>
+      <c r="AU13" s="56"/>
+      <c r="AV13" s="56"/>
+      <c r="AW13" s="56"/>
+      <c r="AX13" s="56"/>
+      <c r="AY13" s="56"/>
+      <c r="AZ13" s="56"/>
+      <c r="BA13" s="56"/>
       <c r="BB13" s="10"/>
     </row>
     <row r="14" spans="1:59" s="6" customFormat="1" ht="116.25" customHeight="1">
@@ -8171,64 +8179,64 @@
         <f>ROW()-9</f>
         <v>5</v>
       </c>
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="56"/>
+      <c r="U14" s="56"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="56"/>
+      <c r="X14" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="54" t="s">
-        <v>132</v>
-      </c>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="54"/>
-      <c r="R14" s="54"/>
-      <c r="S14" s="54"/>
-      <c r="T14" s="54"/>
-      <c r="U14" s="54"/>
-      <c r="V14" s="54"/>
-      <c r="W14" s="54"/>
-      <c r="X14" s="55" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y14" s="55"/>
-      <c r="Z14" s="55"/>
-      <c r="AA14" s="55"/>
-      <c r="AB14" s="55"/>
-      <c r="AC14" s="55"/>
-      <c r="AD14" s="55"/>
-      <c r="AE14" s="55"/>
-      <c r="AF14" s="55"/>
-      <c r="AG14" s="55"/>
-      <c r="AH14" s="55"/>
-      <c r="AI14" s="55"/>
-      <c r="AJ14" s="55"/>
-      <c r="AK14" s="54"/>
-      <c r="AL14" s="54"/>
-      <c r="AM14" s="54"/>
-      <c r="AN14" s="54"/>
-      <c r="AO14" s="54"/>
-      <c r="AP14" s="54"/>
-      <c r="AQ14" s="54"/>
-      <c r="AR14" s="54"/>
-      <c r="AS14" s="54"/>
-      <c r="AT14" s="54"/>
-      <c r="AU14" s="54"/>
-      <c r="AV14" s="54"/>
-      <c r="AW14" s="54"/>
-      <c r="AX14" s="54"/>
-      <c r="AY14" s="54"/>
-      <c r="AZ14" s="54"/>
-      <c r="BA14" s="54"/>
+      <c r="Y14" s="57"/>
+      <c r="Z14" s="57"/>
+      <c r="AA14" s="57"/>
+      <c r="AB14" s="57"/>
+      <c r="AC14" s="57"/>
+      <c r="AD14" s="57"/>
+      <c r="AE14" s="57"/>
+      <c r="AF14" s="57"/>
+      <c r="AG14" s="57"/>
+      <c r="AH14" s="57"/>
+      <c r="AI14" s="57"/>
+      <c r="AJ14" s="57"/>
+      <c r="AK14" s="56"/>
+      <c r="AL14" s="56"/>
+      <c r="AM14" s="56"/>
+      <c r="AN14" s="56"/>
+      <c r="AO14" s="56"/>
+      <c r="AP14" s="56"/>
+      <c r="AQ14" s="56"/>
+      <c r="AR14" s="56"/>
+      <c r="AS14" s="56"/>
+      <c r="AT14" s="56"/>
+      <c r="AU14" s="56"/>
+      <c r="AV14" s="56"/>
+      <c r="AW14" s="56"/>
+      <c r="AX14" s="56"/>
+      <c r="AY14" s="56"/>
+      <c r="AZ14" s="56"/>
+      <c r="BA14" s="56"/>
       <c r="BB14" s="10">
         <v>1</v>
       </c>
@@ -8238,64 +8246,64 @@
         <f t="shared" ref="A15:A22" si="1">ROW()-9</f>
         <v>6</v>
       </c>
-      <c r="B15" s="55" t="s">
-        <v>137</v>
-      </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55" t="s">
+      <c r="B15" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="54"/>
-      <c r="S15" s="54"/>
-      <c r="T15" s="54"/>
-      <c r="U15" s="54"/>
-      <c r="V15" s="54"/>
-      <c r="W15" s="54"/>
-      <c r="X15" s="55" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y15" s="55"/>
-      <c r="Z15" s="55"/>
-      <c r="AA15" s="55"/>
-      <c r="AB15" s="55"/>
-      <c r="AC15" s="55"/>
-      <c r="AD15" s="55"/>
-      <c r="AE15" s="55"/>
-      <c r="AF15" s="55"/>
-      <c r="AG15" s="55"/>
-      <c r="AH15" s="55"/>
-      <c r="AI15" s="55"/>
-      <c r="AJ15" s="55"/>
-      <c r="AK15" s="54"/>
-      <c r="AL15" s="54"/>
-      <c r="AM15" s="54"/>
-      <c r="AN15" s="54"/>
-      <c r="AO15" s="54"/>
-      <c r="AP15" s="54"/>
-      <c r="AQ15" s="54"/>
-      <c r="AR15" s="54"/>
-      <c r="AS15" s="54"/>
-      <c r="AT15" s="54"/>
-      <c r="AU15" s="54"/>
-      <c r="AV15" s="54"/>
-      <c r="AW15" s="54"/>
-      <c r="AX15" s="54"/>
-      <c r="AY15" s="54"/>
-      <c r="AZ15" s="54"/>
-      <c r="BA15" s="54"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="56"/>
+      <c r="T15" s="56"/>
+      <c r="U15" s="56"/>
+      <c r="V15" s="56"/>
+      <c r="W15" s="56"/>
+      <c r="X15" s="57" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y15" s="57"/>
+      <c r="Z15" s="57"/>
+      <c r="AA15" s="57"/>
+      <c r="AB15" s="57"/>
+      <c r="AC15" s="57"/>
+      <c r="AD15" s="57"/>
+      <c r="AE15" s="57"/>
+      <c r="AF15" s="57"/>
+      <c r="AG15" s="57"/>
+      <c r="AH15" s="57"/>
+      <c r="AI15" s="57"/>
+      <c r="AJ15" s="57"/>
+      <c r="AK15" s="56"/>
+      <c r="AL15" s="56"/>
+      <c r="AM15" s="56"/>
+      <c r="AN15" s="56"/>
+      <c r="AO15" s="56"/>
+      <c r="AP15" s="56"/>
+      <c r="AQ15" s="56"/>
+      <c r="AR15" s="56"/>
+      <c r="AS15" s="56"/>
+      <c r="AT15" s="56"/>
+      <c r="AU15" s="56"/>
+      <c r="AV15" s="56"/>
+      <c r="AW15" s="56"/>
+      <c r="AX15" s="56"/>
+      <c r="AY15" s="56"/>
+      <c r="AZ15" s="56"/>
+      <c r="BA15" s="56"/>
       <c r="BB15" s="10">
         <v>1</v>
       </c>
@@ -8305,58 +8313,58 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="54"/>
-      <c r="S16" s="54"/>
-      <c r="T16" s="54"/>
-      <c r="U16" s="54"/>
-      <c r="V16" s="54"/>
-      <c r="W16" s="54"/>
-      <c r="X16" s="55"/>
-      <c r="Y16" s="55"/>
-      <c r="Z16" s="55"/>
-      <c r="AA16" s="55"/>
-      <c r="AB16" s="55"/>
-      <c r="AC16" s="55"/>
-      <c r="AD16" s="55"/>
-      <c r="AE16" s="55"/>
-      <c r="AF16" s="55"/>
-      <c r="AG16" s="55"/>
-      <c r="AH16" s="55"/>
-      <c r="AI16" s="55"/>
-      <c r="AJ16" s="55"/>
-      <c r="AK16" s="51"/>
-      <c r="AL16" s="52"/>
-      <c r="AM16" s="52"/>
-      <c r="AN16" s="52"/>
-      <c r="AO16" s="52"/>
-      <c r="AP16" s="52"/>
-      <c r="AQ16" s="52"/>
-      <c r="AR16" s="52"/>
-      <c r="AS16" s="52"/>
-      <c r="AT16" s="52"/>
-      <c r="AU16" s="52"/>
-      <c r="AV16" s="53"/>
-      <c r="AW16" s="54"/>
-      <c r="AX16" s="54"/>
-      <c r="AY16" s="54"/>
-      <c r="AZ16" s="54"/>
-      <c r="BA16" s="54"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="57"/>
+      <c r="Y16" s="57"/>
+      <c r="Z16" s="57"/>
+      <c r="AA16" s="57"/>
+      <c r="AB16" s="57"/>
+      <c r="AC16" s="57"/>
+      <c r="AD16" s="57"/>
+      <c r="AE16" s="57"/>
+      <c r="AF16" s="57"/>
+      <c r="AG16" s="57"/>
+      <c r="AH16" s="57"/>
+      <c r="AI16" s="57"/>
+      <c r="AJ16" s="57"/>
+      <c r="AK16" s="61"/>
+      <c r="AL16" s="62"/>
+      <c r="AM16" s="62"/>
+      <c r="AN16" s="62"/>
+      <c r="AO16" s="62"/>
+      <c r="AP16" s="62"/>
+      <c r="AQ16" s="62"/>
+      <c r="AR16" s="62"/>
+      <c r="AS16" s="62"/>
+      <c r="AT16" s="62"/>
+      <c r="AU16" s="62"/>
+      <c r="AV16" s="63"/>
+      <c r="AW16" s="56"/>
+      <c r="AX16" s="56"/>
+      <c r="AY16" s="56"/>
+      <c r="AZ16" s="56"/>
+      <c r="BA16" s="56"/>
       <c r="BB16" s="10"/>
     </row>
     <row r="17" spans="1:54" s="6" customFormat="1" ht="45.75" customHeight="1">
@@ -8364,58 +8372,58 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="54"/>
-      <c r="R17" s="54"/>
-      <c r="S17" s="54"/>
-      <c r="T17" s="54"/>
-      <c r="U17" s="54"/>
-      <c r="V17" s="54"/>
-      <c r="W17" s="54"/>
-      <c r="X17" s="55"/>
-      <c r="Y17" s="55"/>
-      <c r="Z17" s="55"/>
-      <c r="AA17" s="55"/>
-      <c r="AB17" s="55"/>
-      <c r="AC17" s="55"/>
-      <c r="AD17" s="55"/>
-      <c r="AE17" s="55"/>
-      <c r="AF17" s="55"/>
-      <c r="AG17" s="55"/>
-      <c r="AH17" s="55"/>
-      <c r="AI17" s="55"/>
-      <c r="AJ17" s="55"/>
-      <c r="AK17" s="54"/>
-      <c r="AL17" s="54"/>
-      <c r="AM17" s="54"/>
-      <c r="AN17" s="54"/>
-      <c r="AO17" s="54"/>
-      <c r="AP17" s="54"/>
-      <c r="AQ17" s="54"/>
-      <c r="AR17" s="54"/>
-      <c r="AS17" s="54"/>
-      <c r="AT17" s="54"/>
-      <c r="AU17" s="54"/>
-      <c r="AV17" s="54"/>
-      <c r="AW17" s="56"/>
-      <c r="AX17" s="54"/>
-      <c r="AY17" s="54"/>
-      <c r="AZ17" s="54"/>
-      <c r="BA17" s="54"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="56"/>
+      <c r="T17" s="56"/>
+      <c r="U17" s="56"/>
+      <c r="V17" s="56"/>
+      <c r="W17" s="56"/>
+      <c r="X17" s="57"/>
+      <c r="Y17" s="57"/>
+      <c r="Z17" s="57"/>
+      <c r="AA17" s="57"/>
+      <c r="AB17" s="57"/>
+      <c r="AC17" s="57"/>
+      <c r="AD17" s="57"/>
+      <c r="AE17" s="57"/>
+      <c r="AF17" s="57"/>
+      <c r="AG17" s="57"/>
+      <c r="AH17" s="57"/>
+      <c r="AI17" s="57"/>
+      <c r="AJ17" s="57"/>
+      <c r="AK17" s="56"/>
+      <c r="AL17" s="56"/>
+      <c r="AM17" s="56"/>
+      <c r="AN17" s="56"/>
+      <c r="AO17" s="56"/>
+      <c r="AP17" s="56"/>
+      <c r="AQ17" s="56"/>
+      <c r="AR17" s="56"/>
+      <c r="AS17" s="56"/>
+      <c r="AT17" s="56"/>
+      <c r="AU17" s="56"/>
+      <c r="AV17" s="56"/>
+      <c r="AW17" s="58"/>
+      <c r="AX17" s="56"/>
+      <c r="AY17" s="56"/>
+      <c r="AZ17" s="56"/>
+      <c r="BA17" s="56"/>
       <c r="BB17" s="10"/>
     </row>
     <row r="18" spans="1:54" s="6" customFormat="1" ht="30.75" customHeight="1">
@@ -8423,58 +8431,58 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="54"/>
-      <c r="S18" s="54"/>
-      <c r="T18" s="54"/>
-      <c r="U18" s="54"/>
-      <c r="V18" s="54"/>
-      <c r="W18" s="54"/>
-      <c r="X18" s="55"/>
-      <c r="Y18" s="55"/>
-      <c r="Z18" s="55"/>
-      <c r="AA18" s="55"/>
-      <c r="AB18" s="55"/>
-      <c r="AC18" s="55"/>
-      <c r="AD18" s="55"/>
-      <c r="AE18" s="55"/>
-      <c r="AF18" s="55"/>
-      <c r="AG18" s="55"/>
-      <c r="AH18" s="55"/>
-      <c r="AI18" s="55"/>
-      <c r="AJ18" s="55"/>
-      <c r="AK18" s="54"/>
-      <c r="AL18" s="54"/>
-      <c r="AM18" s="54"/>
-      <c r="AN18" s="54"/>
-      <c r="AO18" s="54"/>
-      <c r="AP18" s="54"/>
-      <c r="AQ18" s="54"/>
-      <c r="AR18" s="54"/>
-      <c r="AS18" s="54"/>
-      <c r="AT18" s="54"/>
-      <c r="AU18" s="54"/>
-      <c r="AV18" s="54"/>
-      <c r="AW18" s="54"/>
-      <c r="AX18" s="54"/>
-      <c r="AY18" s="54"/>
-      <c r="AZ18" s="54"/>
-      <c r="BA18" s="54"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="56"/>
+      <c r="T18" s="56"/>
+      <c r="U18" s="56"/>
+      <c r="V18" s="56"/>
+      <c r="W18" s="56"/>
+      <c r="X18" s="57"/>
+      <c r="Y18" s="57"/>
+      <c r="Z18" s="57"/>
+      <c r="AA18" s="57"/>
+      <c r="AB18" s="57"/>
+      <c r="AC18" s="57"/>
+      <c r="AD18" s="57"/>
+      <c r="AE18" s="57"/>
+      <c r="AF18" s="57"/>
+      <c r="AG18" s="57"/>
+      <c r="AH18" s="57"/>
+      <c r="AI18" s="57"/>
+      <c r="AJ18" s="57"/>
+      <c r="AK18" s="56"/>
+      <c r="AL18" s="56"/>
+      <c r="AM18" s="56"/>
+      <c r="AN18" s="56"/>
+      <c r="AO18" s="56"/>
+      <c r="AP18" s="56"/>
+      <c r="AQ18" s="56"/>
+      <c r="AR18" s="56"/>
+      <c r="AS18" s="56"/>
+      <c r="AT18" s="56"/>
+      <c r="AU18" s="56"/>
+      <c r="AV18" s="56"/>
+      <c r="AW18" s="56"/>
+      <c r="AX18" s="56"/>
+      <c r="AY18" s="56"/>
+      <c r="AZ18" s="56"/>
+      <c r="BA18" s="56"/>
       <c r="BB18" s="10"/>
     </row>
     <row r="19" spans="1:54" s="6" customFormat="1" ht="30.75" customHeight="1">
@@ -8482,58 +8490,58 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="54"/>
-      <c r="R19" s="54"/>
-      <c r="S19" s="54"/>
-      <c r="T19" s="54"/>
-      <c r="U19" s="54"/>
-      <c r="V19" s="54"/>
-      <c r="W19" s="54"/>
-      <c r="X19" s="55"/>
-      <c r="Y19" s="55"/>
-      <c r="Z19" s="55"/>
-      <c r="AA19" s="55"/>
-      <c r="AB19" s="55"/>
-      <c r="AC19" s="55"/>
-      <c r="AD19" s="55"/>
-      <c r="AE19" s="55"/>
-      <c r="AF19" s="55"/>
-      <c r="AG19" s="55"/>
-      <c r="AH19" s="55"/>
-      <c r="AI19" s="55"/>
-      <c r="AJ19" s="55"/>
-      <c r="AK19" s="54"/>
-      <c r="AL19" s="54"/>
-      <c r="AM19" s="54"/>
-      <c r="AN19" s="54"/>
-      <c r="AO19" s="54"/>
-      <c r="AP19" s="54"/>
-      <c r="AQ19" s="54"/>
-      <c r="AR19" s="54"/>
-      <c r="AS19" s="54"/>
-      <c r="AT19" s="54"/>
-      <c r="AU19" s="54"/>
-      <c r="AV19" s="54"/>
-      <c r="AW19" s="56"/>
-      <c r="AX19" s="54"/>
-      <c r="AY19" s="54"/>
-      <c r="AZ19" s="54"/>
-      <c r="BA19" s="54"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="56"/>
+      <c r="T19" s="56"/>
+      <c r="U19" s="56"/>
+      <c r="V19" s="56"/>
+      <c r="W19" s="56"/>
+      <c r="X19" s="57"/>
+      <c r="Y19" s="57"/>
+      <c r="Z19" s="57"/>
+      <c r="AA19" s="57"/>
+      <c r="AB19" s="57"/>
+      <c r="AC19" s="57"/>
+      <c r="AD19" s="57"/>
+      <c r="AE19" s="57"/>
+      <c r="AF19" s="57"/>
+      <c r="AG19" s="57"/>
+      <c r="AH19" s="57"/>
+      <c r="AI19" s="57"/>
+      <c r="AJ19" s="57"/>
+      <c r="AK19" s="56"/>
+      <c r="AL19" s="56"/>
+      <c r="AM19" s="56"/>
+      <c r="AN19" s="56"/>
+      <c r="AO19" s="56"/>
+      <c r="AP19" s="56"/>
+      <c r="AQ19" s="56"/>
+      <c r="AR19" s="56"/>
+      <c r="AS19" s="56"/>
+      <c r="AT19" s="56"/>
+      <c r="AU19" s="56"/>
+      <c r="AV19" s="56"/>
+      <c r="AW19" s="58"/>
+      <c r="AX19" s="56"/>
+      <c r="AY19" s="56"/>
+      <c r="AZ19" s="56"/>
+      <c r="BA19" s="56"/>
       <c r="BB19" s="10"/>
     </row>
     <row r="20" spans="1:54" s="6" customFormat="1" ht="30.75" customHeight="1">
@@ -8541,58 +8549,58 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="54"/>
-      <c r="S20" s="54"/>
-      <c r="T20" s="54"/>
-      <c r="U20" s="54"/>
-      <c r="V20" s="54"/>
-      <c r="W20" s="54"/>
-      <c r="X20" s="55"/>
-      <c r="Y20" s="55"/>
-      <c r="Z20" s="55"/>
-      <c r="AA20" s="55"/>
-      <c r="AB20" s="55"/>
-      <c r="AC20" s="55"/>
-      <c r="AD20" s="55"/>
-      <c r="AE20" s="55"/>
-      <c r="AF20" s="55"/>
-      <c r="AG20" s="55"/>
-      <c r="AH20" s="55"/>
-      <c r="AI20" s="55"/>
-      <c r="AJ20" s="55"/>
-      <c r="AK20" s="54"/>
-      <c r="AL20" s="54"/>
-      <c r="AM20" s="54"/>
-      <c r="AN20" s="54"/>
-      <c r="AO20" s="54"/>
-      <c r="AP20" s="54"/>
-      <c r="AQ20" s="54"/>
-      <c r="AR20" s="54"/>
-      <c r="AS20" s="54"/>
-      <c r="AT20" s="54"/>
-      <c r="AU20" s="54"/>
-      <c r="AV20" s="54"/>
-      <c r="AW20" s="56"/>
-      <c r="AX20" s="54"/>
-      <c r="AY20" s="54"/>
-      <c r="AZ20" s="54"/>
-      <c r="BA20" s="54"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="56"/>
+      <c r="U20" s="56"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="56"/>
+      <c r="X20" s="57"/>
+      <c r="Y20" s="57"/>
+      <c r="Z20" s="57"/>
+      <c r="AA20" s="57"/>
+      <c r="AB20" s="57"/>
+      <c r="AC20" s="57"/>
+      <c r="AD20" s="57"/>
+      <c r="AE20" s="57"/>
+      <c r="AF20" s="57"/>
+      <c r="AG20" s="57"/>
+      <c r="AH20" s="57"/>
+      <c r="AI20" s="57"/>
+      <c r="AJ20" s="57"/>
+      <c r="AK20" s="56"/>
+      <c r="AL20" s="56"/>
+      <c r="AM20" s="56"/>
+      <c r="AN20" s="56"/>
+      <c r="AO20" s="56"/>
+      <c r="AP20" s="56"/>
+      <c r="AQ20" s="56"/>
+      <c r="AR20" s="56"/>
+      <c r="AS20" s="56"/>
+      <c r="AT20" s="56"/>
+      <c r="AU20" s="56"/>
+      <c r="AV20" s="56"/>
+      <c r="AW20" s="58"/>
+      <c r="AX20" s="56"/>
+      <c r="AY20" s="56"/>
+      <c r="AZ20" s="56"/>
+      <c r="BA20" s="56"/>
       <c r="BB20" s="10"/>
     </row>
     <row r="21" spans="1:54" s="6" customFormat="1" ht="30.75" customHeight="1">
@@ -8600,58 +8608,58 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="54"/>
-      <c r="S21" s="54"/>
-      <c r="T21" s="54"/>
-      <c r="U21" s="54"/>
-      <c r="V21" s="54"/>
-      <c r="W21" s="54"/>
-      <c r="X21" s="55"/>
-      <c r="Y21" s="55"/>
-      <c r="Z21" s="55"/>
-      <c r="AA21" s="55"/>
-      <c r="AB21" s="55"/>
-      <c r="AC21" s="55"/>
-      <c r="AD21" s="55"/>
-      <c r="AE21" s="55"/>
-      <c r="AF21" s="55"/>
-      <c r="AG21" s="55"/>
-      <c r="AH21" s="55"/>
-      <c r="AI21" s="55"/>
-      <c r="AJ21" s="55"/>
-      <c r="AK21" s="54"/>
-      <c r="AL21" s="54"/>
-      <c r="AM21" s="54"/>
-      <c r="AN21" s="54"/>
-      <c r="AO21" s="54"/>
-      <c r="AP21" s="54"/>
-      <c r="AQ21" s="54"/>
-      <c r="AR21" s="54"/>
-      <c r="AS21" s="54"/>
-      <c r="AT21" s="54"/>
-      <c r="AU21" s="54"/>
-      <c r="AV21" s="54"/>
-      <c r="AW21" s="54"/>
-      <c r="AX21" s="54"/>
-      <c r="AY21" s="54"/>
-      <c r="AZ21" s="54"/>
-      <c r="BA21" s="54"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="56"/>
+      <c r="T21" s="56"/>
+      <c r="U21" s="56"/>
+      <c r="V21" s="56"/>
+      <c r="W21" s="56"/>
+      <c r="X21" s="57"/>
+      <c r="Y21" s="57"/>
+      <c r="Z21" s="57"/>
+      <c r="AA21" s="57"/>
+      <c r="AB21" s="57"/>
+      <c r="AC21" s="57"/>
+      <c r="AD21" s="57"/>
+      <c r="AE21" s="57"/>
+      <c r="AF21" s="57"/>
+      <c r="AG21" s="57"/>
+      <c r="AH21" s="57"/>
+      <c r="AI21" s="57"/>
+      <c r="AJ21" s="57"/>
+      <c r="AK21" s="56"/>
+      <c r="AL21" s="56"/>
+      <c r="AM21" s="56"/>
+      <c r="AN21" s="56"/>
+      <c r="AO21" s="56"/>
+      <c r="AP21" s="56"/>
+      <c r="AQ21" s="56"/>
+      <c r="AR21" s="56"/>
+      <c r="AS21" s="56"/>
+      <c r="AT21" s="56"/>
+      <c r="AU21" s="56"/>
+      <c r="AV21" s="56"/>
+      <c r="AW21" s="56"/>
+      <c r="AX21" s="56"/>
+      <c r="AY21" s="56"/>
+      <c r="AZ21" s="56"/>
+      <c r="BA21" s="56"/>
       <c r="BB21" s="10"/>
     </row>
     <row r="22" spans="1:54" s="5" customFormat="1" ht="42" customHeight="1">
@@ -8659,58 +8667,58 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="57"/>
-      <c r="R22" s="57"/>
-      <c r="S22" s="57"/>
-      <c r="T22" s="57"/>
-      <c r="U22" s="57"/>
-      <c r="V22" s="57"/>
-      <c r="W22" s="57"/>
-      <c r="X22" s="58"/>
-      <c r="Y22" s="58"/>
-      <c r="Z22" s="58"/>
-      <c r="AA22" s="58"/>
-      <c r="AB22" s="58"/>
-      <c r="AC22" s="58"/>
-      <c r="AD22" s="58"/>
-      <c r="AE22" s="58"/>
-      <c r="AF22" s="58"/>
-      <c r="AG22" s="58"/>
-      <c r="AH22" s="58"/>
-      <c r="AI22" s="58"/>
-      <c r="AJ22" s="58"/>
-      <c r="AK22" s="57"/>
-      <c r="AL22" s="57"/>
-      <c r="AM22" s="57"/>
-      <c r="AN22" s="57"/>
-      <c r="AO22" s="57"/>
-      <c r="AP22" s="57"/>
-      <c r="AQ22" s="57"/>
-      <c r="AR22" s="57"/>
-      <c r="AS22" s="57"/>
-      <c r="AT22" s="57"/>
-      <c r="AU22" s="57"/>
-      <c r="AV22" s="57"/>
-      <c r="AW22" s="57"/>
-      <c r="AX22" s="57"/>
-      <c r="AY22" s="57"/>
-      <c r="AZ22" s="57"/>
-      <c r="BA22" s="57"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="67"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="67"/>
+      <c r="R22" s="67"/>
+      <c r="S22" s="67"/>
+      <c r="T22" s="67"/>
+      <c r="U22" s="67"/>
+      <c r="V22" s="67"/>
+      <c r="W22" s="67"/>
+      <c r="X22" s="66"/>
+      <c r="Y22" s="66"/>
+      <c r="Z22" s="66"/>
+      <c r="AA22" s="66"/>
+      <c r="AB22" s="66"/>
+      <c r="AC22" s="66"/>
+      <c r="AD22" s="66"/>
+      <c r="AE22" s="66"/>
+      <c r="AF22" s="66"/>
+      <c r="AG22" s="66"/>
+      <c r="AH22" s="66"/>
+      <c r="AI22" s="66"/>
+      <c r="AJ22" s="66"/>
+      <c r="AK22" s="67"/>
+      <c r="AL22" s="67"/>
+      <c r="AM22" s="67"/>
+      <c r="AN22" s="67"/>
+      <c r="AO22" s="67"/>
+      <c r="AP22" s="67"/>
+      <c r="AQ22" s="67"/>
+      <c r="AR22" s="67"/>
+      <c r="AS22" s="67"/>
+      <c r="AT22" s="67"/>
+      <c r="AU22" s="67"/>
+      <c r="AV22" s="67"/>
+      <c r="AW22" s="67"/>
+      <c r="AX22" s="67"/>
+      <c r="AY22" s="67"/>
+      <c r="AZ22" s="67"/>
+      <c r="BA22" s="67"/>
       <c r="BB22" s="11"/>
     </row>
     <row r="23" spans="1:54">
@@ -8721,28 +8729,25 @@
     </row>
   </sheetData>
   <mergeCells count="98">
+    <mergeCell ref="AW7:BA7"/>
     <mergeCell ref="AW9:BA9"/>
     <mergeCell ref="B8:J8"/>
     <mergeCell ref="K8:W8"/>
     <mergeCell ref="X8:AJ8"/>
     <mergeCell ref="AK8:AV8"/>
     <mergeCell ref="AW8:BA8"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="K7:W7"/>
-    <mergeCell ref="X7:AJ7"/>
-    <mergeCell ref="AK7:AV7"/>
-    <mergeCell ref="AW7:BA7"/>
-    <mergeCell ref="X10:AJ10"/>
-    <mergeCell ref="AK10:AV10"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="K18:W18"/>
-    <mergeCell ref="X18:AJ18"/>
-    <mergeCell ref="AK18:AV18"/>
     <mergeCell ref="B9:J9"/>
     <mergeCell ref="K9:W9"/>
     <mergeCell ref="X9:AJ9"/>
     <mergeCell ref="AK9:AV9"/>
     <mergeCell ref="B17:J17"/>
+    <mergeCell ref="K17:W17"/>
+    <mergeCell ref="X17:AJ17"/>
+    <mergeCell ref="AK17:AV17"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="K7:W7"/>
+    <mergeCell ref="X7:AJ7"/>
+    <mergeCell ref="AK7:AV7"/>
     <mergeCell ref="AW6:BA6"/>
     <mergeCell ref="AW1:BA1"/>
     <mergeCell ref="A2:I4"/>
@@ -8759,6 +8764,7 @@
     <mergeCell ref="AR1:AV1"/>
     <mergeCell ref="B6:J6"/>
     <mergeCell ref="K6:W6"/>
+    <mergeCell ref="AW21:BA21"/>
     <mergeCell ref="X6:AJ6"/>
     <mergeCell ref="AK6:AV6"/>
     <mergeCell ref="AW22:BA22"/>
@@ -8774,13 +8780,14 @@
     <mergeCell ref="AW15:BA15"/>
     <mergeCell ref="B19:J19"/>
     <mergeCell ref="K19:W19"/>
-    <mergeCell ref="X19:AJ19"/>
-    <mergeCell ref="AK19:AV19"/>
-    <mergeCell ref="AW19:BA19"/>
     <mergeCell ref="B22:J22"/>
     <mergeCell ref="K22:W22"/>
     <mergeCell ref="X22:AJ22"/>
     <mergeCell ref="AK22:AV22"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="K21:W21"/>
+    <mergeCell ref="X21:AJ21"/>
+    <mergeCell ref="AK21:AV21"/>
     <mergeCell ref="AW17:BA17"/>
     <mergeCell ref="AW10:BA10"/>
     <mergeCell ref="B14:J14"/>
@@ -8802,23 +8809,24 @@
     <mergeCell ref="K10:W10"/>
     <mergeCell ref="AK16:AV16"/>
     <mergeCell ref="AW16:BA16"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="K21:W21"/>
-    <mergeCell ref="X21:AJ21"/>
-    <mergeCell ref="AK21:AV21"/>
-    <mergeCell ref="AW21:BA21"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="K16:W16"/>
+    <mergeCell ref="X16:AJ16"/>
+    <mergeCell ref="X10:AJ10"/>
+    <mergeCell ref="AK10:AV10"/>
     <mergeCell ref="AW18:BA18"/>
     <mergeCell ref="B20:J20"/>
     <mergeCell ref="K20:W20"/>
     <mergeCell ref="X20:AJ20"/>
     <mergeCell ref="AK20:AV20"/>
     <mergeCell ref="AW20:BA20"/>
-    <mergeCell ref="K17:W17"/>
-    <mergeCell ref="X17:AJ17"/>
-    <mergeCell ref="AK17:AV17"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="K16:W16"/>
-    <mergeCell ref="X16:AJ16"/>
+    <mergeCell ref="AK19:AV19"/>
+    <mergeCell ref="AW19:BA19"/>
+    <mergeCell ref="X19:AJ19"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="K18:W18"/>
+    <mergeCell ref="X18:AJ18"/>
+    <mergeCell ref="AK18:AV18"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.62992125984251968" footer="0.39370078740157483"/>
@@ -9440,31 +9448,31 @@
       </c>
     </row>
     <row r="83" spans="1:11" s="16" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B83" s="74" t="s">
+      <c r="B83" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="C83" s="74"/>
-      <c r="D83" s="74"/>
-      <c r="E83" s="74" t="s">
+      <c r="C83" s="85"/>
+      <c r="D83" s="85"/>
+      <c r="E83" s="85" t="s">
         <v>107</v>
       </c>
-      <c r="F83" s="74"/>
-      <c r="G83" s="74"/>
-      <c r="H83" s="74" t="s">
+      <c r="F83" s="85"/>
+      <c r="G83" s="85"/>
+      <c r="H83" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="I83" s="74"/>
-      <c r="J83" s="75"/>
+      <c r="I83" s="85"/>
+      <c r="J83" s="86"/>
     </row>
     <row r="84" spans="1:11" s="16" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B84" s="74" t="s">
+      <c r="B84" s="85" t="s">
         <v>109</v>
       </c>
-      <c r="C84" s="74"/>
-      <c r="J84" s="74" t="s">
+      <c r="C84" s="85"/>
+      <c r="J84" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="K84" s="74"/>
+      <c r="K84" s="85"/>
     </row>
     <row r="88" spans="1:11" s="16" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A88" s="49" t="s">
@@ -9584,36 +9592,36 @@
       </c>
     </row>
     <row r="19" spans="1:17" ht="24.95" customHeight="1" thickBot="1">
-      <c r="B19" s="76" t="s">
+      <c r="B19" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="81" t="s">
+      <c r="C19" s="88"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="91"/>
+      <c r="J19" s="92" t="s">
         <v>116</v>
       </c>
-      <c r="K19" s="81"/>
-      <c r="L19" s="81"/>
-      <c r="M19" s="81"/>
+      <c r="K19" s="92"/>
+      <c r="L19" s="92"/>
+      <c r="M19" s="92"/>
     </row>
     <row r="20" spans="1:17" ht="24.95" customHeight="1" thickBot="1">
-      <c r="B20" s="81" t="s">
+      <c r="B20" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="J20" s="82" t="s">
+      <c r="C20" s="92"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="J20" s="93" t="s">
         <v>117</v>
       </c>
-      <c r="K20" s="83"/>
-      <c r="L20" s="83"/>
-      <c r="M20" s="84"/>
+      <c r="K20" s="94"/>
+      <c r="L20" s="94"/>
+      <c r="M20" s="95"/>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="18"/>
